--- a/Data Download/Current_RatingCurves.xlsx
+++ b/Data Download/Current_RatingCurves.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120" tabRatio="777" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9120" tabRatio="777" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1. Del Dios" sheetId="3" r:id="rId1"/>
@@ -4796,7 +4796,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C248"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9297,7 +9297,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:B241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+    <sheetView topLeftCell="A213" workbookViewId="0">
       <selection activeCell="P230" sqref="P230"/>
     </sheetView>
   </sheetViews>
